--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H2">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I2">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J2">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.04374645411324</v>
+        <v>1.293362666666667</v>
       </c>
       <c r="N2">
-        <v>1.04374645411324</v>
+        <v>3.880088</v>
       </c>
       <c r="O2">
-        <v>0.01758900229850513</v>
+        <v>0.02138321956175446</v>
       </c>
       <c r="P2">
-        <v>0.01758900229850513</v>
+        <v>0.02138321956175446</v>
       </c>
       <c r="Q2">
-        <v>0.3595751339275696</v>
+        <v>0.8890281808462223</v>
       </c>
       <c r="R2">
-        <v>0.3595751339275696</v>
+        <v>8.001253627616</v>
       </c>
       <c r="S2">
-        <v>0.0002443259662737005</v>
+        <v>0.0005689962612895101</v>
       </c>
       <c r="T2">
-        <v>0.0002443259662737005</v>
+        <v>0.0005689962612895101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H3">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I3">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J3">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.7490341959238</v>
+        <v>16.09103333333333</v>
       </c>
       <c r="N3">
-        <v>15.7490341959238</v>
+        <v>48.2731</v>
       </c>
       <c r="O3">
-        <v>0.2653995111357627</v>
+        <v>0.2660337333139169</v>
       </c>
       <c r="P3">
-        <v>0.2653995111357627</v>
+        <v>0.2660337333139169</v>
       </c>
       <c r="Q3">
-        <v>5.425609886301735</v>
+        <v>11.06061158324444</v>
       </c>
       <c r="R3">
-        <v>5.425609886301735</v>
+        <v>99.54550424920001</v>
       </c>
       <c r="S3">
-        <v>0.00368662138456392</v>
+        <v>0.007079018161664026</v>
       </c>
       <c r="T3">
-        <v>0.00368662138456392</v>
+        <v>0.007079018161664026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H4">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I4">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J4">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.5480754371753</v>
+        <v>43.10054</v>
       </c>
       <c r="N4">
-        <v>42.5480754371753</v>
+        <v>129.30162</v>
       </c>
       <c r="O4">
-        <v>0.7170114865657322</v>
+        <v>0.7125830471243286</v>
       </c>
       <c r="P4">
-        <v>0.7170114865657322</v>
+        <v>0.7125830471243286</v>
       </c>
       <c r="Q4">
-        <v>14.65799463403281</v>
+        <v>29.62633425042667</v>
       </c>
       <c r="R4">
-        <v>14.65799463403281</v>
+        <v>266.6370082538401</v>
       </c>
       <c r="S4">
-        <v>0.009959889782913026</v>
+        <v>0.01896146127579502</v>
       </c>
       <c r="T4">
-        <v>0.009959889782913026</v>
+        <v>0.01896146127579502</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.47763752060708</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H5">
-        <v>5.47763752060708</v>
+        <v>17.741954</v>
       </c>
       <c r="I5">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J5">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.04374645411324</v>
+        <v>1.293362666666667</v>
       </c>
       <c r="N5">
-        <v>1.04374645411324</v>
+        <v>3.880088</v>
       </c>
       <c r="O5">
-        <v>0.01758900229850513</v>
+        <v>0.02138321956175446</v>
       </c>
       <c r="P5">
-        <v>0.01758900229850513</v>
+        <v>0.02138321956175446</v>
       </c>
       <c r="Q5">
-        <v>5.717264739051279</v>
+        <v>7.648926979105778</v>
       </c>
       <c r="R5">
-        <v>5.717264739051279</v>
+        <v>68.840342811952</v>
       </c>
       <c r="S5">
-        <v>0.003884796527928534</v>
+        <v>0.004895470073676403</v>
       </c>
       <c r="T5">
-        <v>0.003884796527928534</v>
+        <v>0.004895470073676403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.47763752060708</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H6">
-        <v>5.47763752060708</v>
+        <v>17.741954</v>
       </c>
       <c r="I6">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J6">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.7490341959238</v>
+        <v>16.09103333333333</v>
       </c>
       <c r="N6">
-        <v>15.7490341959238</v>
+        <v>48.2731</v>
       </c>
       <c r="O6">
-        <v>0.2653995111357627</v>
+        <v>0.2660337333139169</v>
       </c>
       <c r="P6">
-        <v>0.2653995111357627</v>
+        <v>0.2660337333139169</v>
       </c>
       <c r="Q6">
-        <v>86.26750062491615</v>
+        <v>95.16212440415555</v>
       </c>
       <c r="R6">
-        <v>86.26750062491615</v>
+        <v>856.4591196374</v>
       </c>
       <c r="S6">
-        <v>0.05861748619259471</v>
+        <v>0.06090571049254253</v>
       </c>
       <c r="T6">
-        <v>0.05861748619259471</v>
+        <v>0.06090571049254254</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.47763752060708</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H7">
-        <v>5.47763752060708</v>
+        <v>17.741954</v>
       </c>
       <c r="I7">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J7">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.5480754371753</v>
+        <v>43.10054</v>
       </c>
       <c r="N7">
-        <v>42.5480754371753</v>
+        <v>129.30162</v>
       </c>
       <c r="O7">
-        <v>0.7170114865657322</v>
+        <v>0.7125830471243286</v>
       </c>
       <c r="P7">
-        <v>0.7170114865657322</v>
+        <v>0.7125830471243286</v>
       </c>
       <c r="Q7">
-        <v>233.0629344442919</v>
+        <v>254.8959326850534</v>
       </c>
       <c r="R7">
-        <v>233.0629344442919</v>
+        <v>2294.06339416548</v>
       </c>
       <c r="S7">
-        <v>0.1583628045652234</v>
+        <v>0.1631386224198725</v>
       </c>
       <c r="T7">
-        <v>0.1583628045652234</v>
+        <v>0.1631386224198725</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.978688358287</v>
+        <v>19.230689</v>
       </c>
       <c r="H8">
-        <v>18.978688358287</v>
+        <v>57.692067</v>
       </c>
       <c r="I8">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="J8">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.04374645411324</v>
+        <v>1.293362666666667</v>
       </c>
       <c r="N8">
-        <v>1.04374645411324</v>
+        <v>3.880088</v>
       </c>
       <c r="O8">
-        <v>0.01758900229850513</v>
+        <v>0.02138321956175446</v>
       </c>
       <c r="P8">
-        <v>0.01758900229850513</v>
+        <v>0.02138321956175446</v>
       </c>
       <c r="Q8">
-        <v>19.80893867768228</v>
+        <v>24.87225520687733</v>
       </c>
       <c r="R8">
-        <v>19.80893867768228</v>
+        <v>223.850296861896</v>
       </c>
       <c r="S8">
-        <v>0.01345987980430289</v>
+        <v>0.01591875322678855</v>
       </c>
       <c r="T8">
-        <v>0.01345987980430289</v>
+        <v>0.01591875322678855</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.978688358287</v>
+        <v>19.230689</v>
       </c>
       <c r="H9">
-        <v>18.978688358287</v>
+        <v>57.692067</v>
       </c>
       <c r="I9">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="J9">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.7490341959238</v>
+        <v>16.09103333333333</v>
       </c>
       <c r="N9">
-        <v>15.7490341959238</v>
+        <v>48.2731</v>
       </c>
       <c r="O9">
-        <v>0.2653995111357627</v>
+        <v>0.2660337333139169</v>
       </c>
       <c r="P9">
-        <v>0.2653995111357627</v>
+        <v>0.2660337333139169</v>
       </c>
       <c r="Q9">
-        <v>298.8960119484428</v>
+        <v>309.4416577219667</v>
       </c>
       <c r="R9">
-        <v>298.8960119484428</v>
+        <v>2784.9749194977</v>
       </c>
       <c r="S9">
-        <v>0.203095403558604</v>
+        <v>0.1980490046597104</v>
       </c>
       <c r="T9">
-        <v>0.203095403558604</v>
+        <v>0.1980490046597104</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.978688358287</v>
+        <v>19.230689</v>
       </c>
       <c r="H10">
-        <v>18.978688358287</v>
+        <v>57.692067</v>
       </c>
       <c r="I10">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="J10">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.5480754371753</v>
+        <v>43.10054</v>
       </c>
       <c r="N10">
-        <v>42.5480754371753</v>
+        <v>129.30162</v>
       </c>
       <c r="O10">
-        <v>0.7170114865657322</v>
+        <v>0.7125830471243286</v>
       </c>
       <c r="P10">
-        <v>0.7170114865657322</v>
+        <v>0.7125830471243286</v>
       </c>
       <c r="Q10">
-        <v>807.5066639670358</v>
+        <v>828.8530804720601</v>
       </c>
       <c r="R10">
-        <v>807.5066639670358</v>
+        <v>7459.677724248541</v>
       </c>
       <c r="S10">
-        <v>0.5486887922175958</v>
+        <v>0.5304829634286612</v>
       </c>
       <c r="T10">
-        <v>0.5486887922175958</v>
+        <v>0.5304829634286612</v>
       </c>
     </row>
   </sheetData>
